--- a/data/Social.xlsx
+++ b/data/Social.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15017F15-6952-4DC1-808A-C05FD0839295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FE6887-3E61-4667-83C4-68FF862F080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,42 +31,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>PROJECT NAME</t>
   </si>
   <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
     <t>GRADE</t>
   </si>
   <si>
+    <t>SECTION</t>
+  </si>
+  <si>
     <t>Unity In Diversity/ Rain Water Harvesting</t>
   </si>
   <si>
-    <t>6D</t>
+    <t>VI D</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Girls Section</t>
   </si>
   <si>
     <t>Salient Features Of Indus Valley Civilization</t>
   </si>
   <si>
-    <t>6B</t>
+    <t>VI B</t>
   </si>
   <si>
     <t>Earth Quake</t>
   </si>
   <si>
-    <t>7B</t>
+    <t>VII B</t>
+  </si>
+  <si>
+    <t>VII</t>
   </si>
   <si>
     <t>Multi Purpose Dam</t>
   </si>
   <si>
-    <t>8B</t>
+    <t>VIII B</t>
+  </si>
+  <si>
+    <t>VIII</t>
   </si>
   <si>
     <t>Smart City</t>
   </si>
   <si>
-    <t>10B</t>
+    <t>X B</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>World War 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monish Kesavan,  Muhammad Abrar,  Mohammed Zaid,  Muhammad Ayaan
+</t>
+  </si>
+  <si>
+    <t>VII A</t>
+  </si>
+  <si>
+    <t>Boys Section</t>
+  </si>
+  <si>
+    <t>7 Wonders Of World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Abrar Ali,  
+Sahil Manzoor,  Vansh Upendrabhai Savani, Mohammed Muzaffaruddin
+</t>
+  </si>
+  <si>
+    <t>Beeping Indian Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advik Sharma </t>
+  </si>
+  <si>
+    <t>Disaster Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayed Atif,  Dayyan Ahmed Daulatabad,  Zayyan Ahmed Daulatabad, Abdullah Urooj Khan
+</t>
+  </si>
+  <si>
+    <t>IX A</t>
   </si>
 </sst>
 </file>
@@ -418,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,52 +487,144 @@
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
